--- a/Отпрака SMS.xlsx
+++ b/Отпрака SMS.xlsx
@@ -22,19 +22,19 @@
     <t>Нет</t>
   </si>
   <si>
-    <t>День добрый! Мы из Nicom-сервиса. Андрей,  Ваш аппарат - ноутбук - готов. Оплатить при получнии  необходимо - 6800.0руб. Оплата производится - НАЛИЧНЫМИ.  Аппарат в данный момент находится на пункте выдачи по адресу: меторо - Алтуфьево.  Мурановская ул. д.12. Время работы пункта выдачи в будни - 10-20. В выходные дни - 11-18.</t>
+    <t>День добрый! Мы из Nicom-сервиса. Андрей,  Ваш аппарат - ноутбук - готов. Оплатить при получнии  необходимо - 6800.0руб. Оплата производится - НАЛИЧНЫМИ!  Аппарат в данный момент находится на пункте выдачи по адресу: меторо - Алтуфьево.  Мурановская ул. д.12. Время работы пункта выдачи в будни - 10-20. В выходные дни - 11-18.</t>
   </si>
   <si>
     <t>Как к нам проити: м.Алтуфьево - последний вагон из центра, в переходе налево, по левой лестнице, выход к Макдональдсу, далее пешком 8 мин до Торгового Центра "Будапешт", либо на любом транспорте 3-4 минуты. Вход с угла серого 12-ти этажного жилого дома.        Вывеска:  "Ремонт мобильной техники"</t>
   </si>
   <si>
-    <t>День добрый! Мы из Nicom-сервиса. Андрей,  Ваш аппарат - ноутбук - готов. Оплатить при получнии  необходимо - 8000.0руб. Оплата производится - НАЛИЧНЫМИ.  Аппарат в данный момент находится на пункте выдачи по адресу: меторо - Алтуфьево.  Мурановская ул. д.12. Время работы пункта выдачи в будни - 10-20. В выходные дни - 11-18.</t>
-  </si>
-  <si>
-    <t>День добрый! Мы из Nicom-сервиса. Евгений,  Ваш аппарат - ноутбук - готов. Оплатить при получнии  необходимо - 1000.0руб. Оплата производится - НАЛИЧНЫМИ.  Аппарат в данный момент находится на пункте выдачи по адресу: меторо - Алтуфьево.  Мурановская ул. д.12. Время работы пункта выдачи в будни - 10-20. В выходные дни - 11-18.</t>
-  </si>
-  <si>
-    <t>День добрый! Мы из Nicom-сервиса. Вадим,  Ваш аппарат - игровая приставка большая - готов. Оплатить при получнии  необходимо - 2500.0руб. Оплата производится - НАЛИЧНЫМИ.  Аппарат в данный момент находится на пункте выдачи по адресу: меторо - Медведково.  Студёный проезд д.12. Время работы пункта выдачи в будни - 10-20. В выходные дни - 11-18.</t>
+    <t>День добрый! Мы из Nicom-сервиса. Андрей,  Ваш аппарат - ноутбук - готов. Оплатить при получнии  необходимо - 8000.0руб. Оплата производится - НАЛИЧНЫМИ!  Аппарат в данный момент находится на пункте выдачи по адресу: меторо - Алтуфьево.  Мурановская ул. д.12. Время работы пункта выдачи в будни - 10-20. В выходные дни - 11-18.</t>
+  </si>
+  <si>
+    <t>День добрый! Мы из Nicom-сервиса. Евгений,  Ваш аппарат - ноутбук - готов. Оплатить при получнии  необходимо - 1000.0руб. Оплата производится - НАЛИЧНЫМИ!  Аппарат в данный момент находится на пункте выдачи по адресу: меторо - Алтуфьево.  Мурановская ул. д.12. Время работы пункта выдачи в будни - 10-20. В выходные дни - 11-18.</t>
+  </si>
+  <si>
+    <t>День добрый! Мы из Nicom-сервиса. Вадим,  Ваш аппарат - игровая приставка большая - готов. Оплатить при получнии  необходимо - 2500.0руб. Оплата производится - НАЛИЧНЫМИ!  Аппарат в данный момент находится на пункте выдачи по адресу: меторо - Медведково.  Студёный проезд д.12. Время работы пункта выдачи в будни - 10-20. В выходные дни - 11-18.</t>
   </si>
   <si>
     <t>Как к нам проити: Первый вагон из центра. Из метро налево. Пройдя автостоянку (вдоль ул.Грекова), поверните налево, вход в СЦ с улицы (с проезжей части)</t>
